--- a/DCF_Modeling.xlsx
+++ b/DCF_Modeling.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的雲端硬碟\個人文件\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBC771-ABA1-42D5-98F4-A1AD97531AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90438432-6C95-4F7E-A773-9E4981973240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="4365" windowWidth="25875" windowHeight="15420" xr2:uid="{5BD778E6-98FA-461E-8749-5D5793061A6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{5BD778E6-98FA-461E-8749-5D5793061A6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="WLTW" sheetId="8" r:id="rId1"/>
-    <sheet name="TESLA" sheetId="4" r:id="rId2"/>
+    <sheet name="TESLA" sheetId="4" r:id="rId1"/>
+    <sheet name="WLTW" sheetId="8" r:id="rId2"/>
     <sheet name="QRVO" sheetId="3" r:id="rId3"/>
     <sheet name="HD" sheetId="5" r:id="rId4"/>
     <sheet name="AMD" sheetId="6" r:id="rId5"/>
@@ -923,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,6 +1187,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,10 +1218,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,237 +1236,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137833</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B8A40B-ED83-41AF-AAA1-D46D50481C65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="19592925" y="2686050"/>
-          <a:ext cx="2771775" cy="1452283"/>
-          <a:chOff x="16840200" y="2705100"/>
-          <a:chExt cx="2019300" cy="1362075"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB60FC83-F8C0-4FFA-8C36-C1E35F6C226F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="16840200" y="2705100"/>
-            <a:ext cx="9525" cy="1362075"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:headEnd type="none"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC80CFE-ADA5-408F-B448-47492DBAEFD3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16849725" y="4067175"/>
-            <a:ext cx="2009775" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="oval"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114298</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>605675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FFAA60-5ADA-48C5-8A86-CAA41663DD8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="10800000">
-          <a:off x="18992848" y="1295399"/>
-          <a:ext cx="491377" cy="1038226"/>
-          <a:chOff x="16840200" y="2705100"/>
-          <a:chExt cx="2019300" cy="1362075"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D283D44-5488-47A4-8381-8E42BFBA099E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="16840200" y="2705100"/>
-            <a:ext cx="9525" cy="1362075"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:headEnd type="none"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163AB069-7641-4A0E-961A-E4AB030308D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16849725" y="4067175"/>
-            <a:ext cx="2009775" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:headEnd type="oval"/>
-            <a:tailEnd type="oval"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2215,6 +1987,237 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B8A40B-ED83-41AF-AAA1-D46D50481C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19592925" y="2686050"/>
+          <a:ext cx="2771775" cy="1452283"/>
+          <a:chOff x="16840200" y="2705100"/>
+          <a:chExt cx="2019300" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB60FC83-F8C0-4FFA-8C36-C1E35F6C226F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="16840200" y="2705100"/>
+            <a:ext cx="9525" cy="1362075"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC80CFE-ADA5-408F-B448-47492DBAEFD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16849725" y="4067175"/>
+            <a:ext cx="2009775" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:headEnd type="oval"/>
+            <a:tailEnd type="oval"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FFAA60-5ADA-48C5-8A86-CAA41663DD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="10800000">
+          <a:off x="18992848" y="1295399"/>
+          <a:ext cx="491377" cy="1038226"/>
+          <a:chOff x="16840200" y="2705100"/>
+          <a:chExt cx="2019300" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D283D44-5488-47A4-8381-8E42BFBA099E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="16840200" y="2705100"/>
+            <a:ext cx="9525" cy="1362075"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163AB069-7641-4A0E-961A-E4AB030308D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16849725" y="4067175"/>
+            <a:ext cx="2009775" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:headEnd type="oval"/>
+            <a:tailEnd type="oval"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3440,1365 +3443,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA09BBF-9146-45D0-B2CE-B689733DBCF0}">
-  <dimension ref="B1:T40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="87" customWidth="1"/>
-    <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="99">
-        <v>4</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="109"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>44409</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="99">
-        <v>2017</v>
-      </c>
-      <c r="F3" s="99">
-        <v>2018</v>
-      </c>
-      <c r="G3" s="99">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="99">
-        <v>2020</v>
-      </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
-        <v>2021</v>
-      </c>
-      <c r="L3" s="99">
-        <v>2022</v>
-      </c>
-      <c r="M3" s="99">
-        <v>2023</v>
-      </c>
-      <c r="N3" s="99">
-        <v>2024</v>
-      </c>
-      <c r="O3" s="99">
-        <v>2025</v>
-      </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
-        <v>7887000000</v>
-      </c>
-      <c r="E4" s="13">
-        <v>8202000000</v>
-      </c>
-      <c r="F4" s="13">
-        <v>8513000000</v>
-      </c>
-      <c r="G4" s="13">
-        <v>9039000000</v>
-      </c>
-      <c r="H4" s="13">
-        <v>9352000000</v>
-      </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="13">
-        <f>H4*(1+K5)</f>
-        <v>9632560000</v>
-      </c>
-      <c r="L4" s="13">
-        <f>K4*(1+L5)</f>
-        <v>9921536800</v>
-      </c>
-      <c r="M4" s="13">
-        <f t="shared" ref="M4:O4" si="0">L4*(1+M5)</f>
-        <v>10219182904</v>
-      </c>
-      <c r="N4" s="13">
-        <f t="shared" si="0"/>
-        <v>10525758391.120001</v>
-      </c>
-      <c r="O4" s="13">
-        <f t="shared" si="0"/>
-        <v>10841531142.853601</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="e">
-        <f>(D4-C4)/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="16">
-        <f t="shared" ref="E5:H5" si="1">(E4-D4)/D4</f>
-        <v>3.9939140357550397E-2</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>3.7917581077785908E-2</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="1"/>
-        <v>6.178785387055092E-2</v>
-      </c>
-      <c r="H5" s="16">
-        <f t="shared" si="1"/>
-        <v>3.4627724305786041E-2</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16">
-        <f>(G4/D4)^(1/I2)-1</f>
-        <v>3.4670665606474582E-2</v>
-      </c>
-      <c r="K5" s="16">
-        <f>$S$5</f>
-        <v>0.03</v>
-      </c>
-      <c r="L5" s="16">
-        <f>$S$5</f>
-        <v>0.03</v>
-      </c>
-      <c r="M5" s="16">
-        <f>$S$5</f>
-        <v>0.03</v>
-      </c>
-      <c r="N5" s="16">
-        <f>$S$5</f>
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="16">
-        <f>$S$5</f>
-        <v>0.03</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <v>1277000000</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1489000000</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1786000000</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2256000000</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1716000000</v>
-      </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="13">
-        <f>K4*K8</f>
-        <v>1926512000</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" ref="L7:O7" si="2">L4*L8</f>
-        <v>1984307360</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="2"/>
-        <v>2043836580.8000002</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="2"/>
-        <v>2105151678.2240002</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="2"/>
-        <v>2168306228.5707202</v>
-      </c>
-      <c r="Q7" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
-        <f>D7/D4</f>
-        <v>0.16191200710029163</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8:H8" si="3">E7/E4</f>
-        <v>0.18154108753962447</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="3"/>
-        <v>0.20979678139316341</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="3"/>
-        <v>0.24958513109857286</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="3"/>
-        <v>0.1834901625320787</v>
-      </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="16">
-        <f>AVERAGE(C8:G8)</f>
-        <v>0.20070875178291309</v>
-      </c>
-      <c r="K8" s="16">
-        <f>$S$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" ref="L8:O8" si="4">$S$8</f>
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="88"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
-        <v>420000000</v>
-      </c>
-      <c r="E10" s="13">
-        <v>568000000</v>
-      </c>
-      <c r="F10" s="13">
-        <v>695000000</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1044000000</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1020000000</v>
-      </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="13">
-        <f>K4*K11</f>
-        <v>963256000</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" ref="L10:O10" si="5">L4*L11</f>
-        <v>992153680</v>
-      </c>
-      <c r="M10" s="13">
-        <f t="shared" si="5"/>
-        <v>1021918290.4000001</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="5"/>
-        <v>1052575839.1120001</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="5"/>
-        <v>1084153114.2853601</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11:H11" si="6">D10/D4</f>
-        <v>5.3252187143400534E-2</v>
-      </c>
-      <c r="E11" s="16">
-        <f>E10/E4</f>
-        <v>6.9251402097049497E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="6"/>
-        <v>8.1639844943028311E-2</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" si="6"/>
-        <v>0.11549950215731829</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="6"/>
-        <v>0.10906757912745936</v>
-      </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="16">
-        <f>AVERAGE(C11:G11)</f>
-        <v>7.9910734085199164E-2</v>
-      </c>
-      <c r="K11" s="16">
-        <f>$S$11</f>
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" ref="L11:O11" si="7">$S$11</f>
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="16">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="13">
-        <v>3.58088235294117</v>
-      </c>
-      <c r="E12" s="13">
-        <v>7.3181818181818103</v>
-      </c>
-      <c r="F12" s="13">
-        <v>5.9692307692307596</v>
-      </c>
-      <c r="G12" s="13">
-        <v>11.2037647058823</v>
-      </c>
-      <c r="H12" s="13">
-        <v>14.0047058823529</v>
-      </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="88"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
-        <f>D17*D12</f>
-        <v>486999999.99999911</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" ref="E13:H13" si="8">E17*E12</f>
-        <v>965999999.99999893</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="8"/>
-        <v>775999999.99999869</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="8"/>
-        <v>1487999999.9999928</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="8"/>
-        <v>1859999999.9999945</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="13">
-        <f>K7*K15</f>
-        <v>1059581600.0000001</v>
-      </c>
-      <c r="L13" s="13">
-        <f t="shared" ref="L13:O13" si="9">L7*L15</f>
-        <v>1091369048</v>
-      </c>
-      <c r="M13" s="13">
-        <f t="shared" si="9"/>
-        <v>1124110119.4400003</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="9"/>
-        <v>1157833423.0232003</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" si="9"/>
-        <v>1192568425.7138963</v>
-      </c>
-      <c r="P13" s="14">
-        <f>O7*S21</f>
-        <v>43366124571.414406</v>
-      </c>
-      <c r="Q13" s="88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17">
-        <f t="shared" ref="D14:H14" si="10">D13/D10</f>
-        <v>1.1595238095238074</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="10"/>
-        <v>1.7007042253521107</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="10"/>
-        <v>1.1165467625899261</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="10"/>
-        <v>1.4252873563218322</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="10"/>
-        <v>1.8235294117647005</v>
-      </c>
-      <c r="I14" s="91"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16">
-        <f>D13/D7</f>
-        <v>0.38136256851996797</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" ref="E15:H15" si="11">E13/E7</f>
-        <v>0.64875755540631219</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="11"/>
-        <v>0.43449048152295561</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="11"/>
-        <v>0.65957446808510323</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="11"/>
-        <v>1.0839160839160806</v>
-      </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="16">
-        <f>AVERAGE(C15:G15)</f>
-        <v>0.53104626838358471</v>
-      </c>
-      <c r="K15" s="16">
-        <f>$S$15</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L15" s="16">
-        <f>$S$15</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M15" s="16">
-        <f>$S$15</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N15" s="16">
-        <f>$S$15</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O15" s="16">
-        <f>$S$15</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="13">
-        <v>136000000</v>
-      </c>
-      <c r="E17" s="13">
-        <v>132000000</v>
-      </c>
-      <c r="F17" s="13">
-        <v>130000000</v>
-      </c>
-      <c r="G17" s="13">
-        <v>132812500</v>
-      </c>
-      <c r="H17" s="13">
-        <v>132812500</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="7">
-        <f>H17</f>
-        <v>132812500</v>
-      </c>
-      <c r="K17" s="7">
-        <f>J17</f>
-        <v>132812500</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" ref="L17:O17" si="12">K17</f>
-        <v>132812500</v>
-      </c>
-      <c r="M17" s="7">
-        <f t="shared" si="12"/>
-        <v>132812500</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="12"/>
-        <v>132812500</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" si="12"/>
-        <v>132812500</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="13">
-        <v>870000000</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1030000000</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1033000000</v>
-      </c>
-      <c r="G19" s="13">
-        <v>887000000</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2089000000</v>
-      </c>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="13">
-        <v>3865000000</v>
-      </c>
-      <c r="E20" s="13">
-        <v>4535000000</v>
-      </c>
-      <c r="F20" s="13">
-        <v>4604000000</v>
-      </c>
-      <c r="G20" s="13">
-        <v>5803000000</v>
-      </c>
-      <c r="H20" s="13">
-        <v>6724000000</v>
-      </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" s="11">
-        <v>20</v>
-      </c>
-      <c r="T21" s="14"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="18">
-        <f>D10/D17</f>
-        <v>3.0882352941176472</v>
-      </c>
-      <c r="E22" s="18">
-        <f>E10/E17</f>
-        <v>4.3030303030303028</v>
-      </c>
-      <c r="F22" s="18">
-        <f>F10/F17</f>
-        <v>5.3461538461538458</v>
-      </c>
-      <c r="G22" s="18">
-        <f>G10/G17</f>
-        <v>7.8607058823529412</v>
-      </c>
-      <c r="H22" s="18">
-        <f>H10/H17</f>
-        <v>7.68</v>
-      </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="8">
-        <f>(G22/D22)^(1/I2)-1</f>
-        <v>0.26310016312663342</v>
-      </c>
-      <c r="K22" s="18">
-        <f>K10/K17</f>
-        <v>7.2527510588235291</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" ref="L22:O22" si="13">L10/L17</f>
-        <v>7.4703335905882353</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="13"/>
-        <v>7.6944435983058828</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="13"/>
-        <v>7.9252769062550597</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="13"/>
-        <v>8.1630352134427113</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="13">
-        <f>D17*D25</f>
-        <v>21806239456</v>
-      </c>
-      <c r="E23" s="13">
-        <f>E17*E25</f>
-        <v>21257279076</v>
-      </c>
-      <c r="F23" s="13">
-        <f>F17*F25</f>
-        <v>27917500000</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G17*G25</f>
-        <v>26952969015.625</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H17*H25</f>
-        <v>30894843750</v>
-      </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="13">
-        <f>D23</f>
-        <v>21806239456</v>
-      </c>
-      <c r="E24" s="13">
-        <f>E23</f>
-        <v>21257279076</v>
-      </c>
-      <c r="F24" s="13">
-        <f>F23</f>
-        <v>27917500000</v>
-      </c>
-      <c r="G24" s="13">
-        <f>G23</f>
-        <v>26952969015.625</v>
-      </c>
-      <c r="H24" s="13">
-        <f>H23</f>
-        <v>30894843750</v>
-      </c>
-      <c r="I24" s="99"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="13">
-        <v>160.33999600000001</v>
-      </c>
-      <c r="E25" s="13">
-        <v>161.03999300000001</v>
-      </c>
-      <c r="F25" s="13">
-        <v>214.75</v>
-      </c>
-      <c r="G25" s="13">
-        <v>202.94000199999999</v>
-      </c>
-      <c r="H25" s="13">
-        <v>232.62</v>
-      </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="e">
-        <f>(D25-C25)/C25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="8">
-        <f>(E25-D25)/D25</f>
-        <v>4.3657042376376021E-3</v>
-      </c>
-      <c r="F26" s="8">
-        <f>(F25-E25)/E25</f>
-        <v>0.33351968041876395</v>
-      </c>
-      <c r="G26" s="8">
-        <f>(G25-F25)/F25</f>
-        <v>-5.4994169965075702E-2</v>
-      </c>
-      <c r="H26" s="8">
-        <f>(H25-G25)/G25</f>
-        <v>0.14625011189267659</v>
-      </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
-        <f>D24/D7</f>
-        <v>17.076146794048551</v>
-      </c>
-      <c r="E27" s="9">
-        <f>E24/E7</f>
-        <v>14.27621160241773</v>
-      </c>
-      <c r="F27" s="9">
-        <f>F24/F7</f>
-        <v>15.631298992161254</v>
-      </c>
-      <c r="G27" s="9">
-        <f>G24/G7</f>
-        <v>11.947238038840869</v>
-      </c>
-      <c r="H27" s="9">
-        <f>H24/H7</f>
-        <v>18.0039881993007</v>
-      </c>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S27" s="14">
-        <f>S21*O7</f>
-        <v>43366124571.414406</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
-        <f>D23/D10</f>
-        <v>51.919617752380951</v>
-      </c>
-      <c r="E28" s="9">
-        <f>E23/E10</f>
-        <v>37.424787105633804</v>
-      </c>
-      <c r="F28" s="9">
-        <f>F23/F10</f>
-        <v>40.169064748201436</v>
-      </c>
-      <c r="G28" s="9">
-        <f>G23/G10</f>
-        <v>25.817020129909004</v>
-      </c>
-      <c r="H28" s="9">
-        <f>H23/H10</f>
-        <v>30.2890625</v>
-      </c>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="6">
-        <f>H19</f>
-        <v>2089000000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10">
-        <f>D13/D23</f>
-        <v>2.2333057516985156E-2</v>
-      </c>
-      <c r="E29" s="10">
-        <f>E13/E23</f>
-        <v>4.544325718010811E-2</v>
-      </c>
-      <c r="F29" s="10">
-        <f>F13/F23</f>
-        <v>2.7796185188501788E-2</v>
-      </c>
-      <c r="G29" s="10">
-        <f>G13/G23</f>
-        <v>5.5207276019846985E-2</v>
-      </c>
-      <c r="H29" s="10">
-        <f>H13/H23</f>
-        <v>6.0204220971339095E-2</v>
-      </c>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S29" s="6">
-        <f>H20*(-1)</f>
-        <v>-6724000000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="14">
-        <f>S27+S28+S29</f>
-        <v>38731124571.414406</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S31" s="83">
-        <f>S30/O17</f>
-        <v>291.62258500829671</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="14"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="84">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="14"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" s="14">
-        <f>NPV(S33,K13:P13)</f>
-        <v>22489012423.19614</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="R36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S36" s="14">
-        <f>S35/O17</f>
-        <v>169.32903471582975</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="R37" s="1"/>
-      <c r="S37" s="14"/>
-    </row>
-    <row r="38" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="94"/>
-      <c r="R38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S38" s="84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="R40" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S40" s="14">
-        <f>S36*(1-S38)</f>
-        <v>126.99677603687232</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R2:S2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1D54A-8904-4111-BB87-C8B9F1A467DF}">
   <dimension ref="A1:BF93"/>
   <sheetViews>
@@ -4846,27 +3490,27 @@
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
-      <c r="I2" s="103" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="I2" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -4924,14 +3568,14 @@
         <v>51</v>
       </c>
       <c r="T3" s="33"/>
-      <c r="U3" s="106" t="s">
+      <c r="U3" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="Y3" s="108" t="s">
+      <c r="V3" s="110"/>
+      <c r="Y3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="108"/>
+      <c r="Z3" s="111"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -5231,11 +3875,11 @@
         <v>65</v>
       </c>
       <c r="V8" s="38"/>
-      <c r="Y8" s="102" t="s">
+      <c r="Y8" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
       <c r="AD8" s="47" t="s">
         <v>67</v>
       </c>
@@ -5842,11 +4486,11 @@
       <c r="V18" s="61">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y18" s="102" t="s">
+      <c r="Y18" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
       <c r="AD18" s="24" t="s">
         <v>106</v>
       </c>
@@ -6096,10 +4740,10 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="68"/>
-      <c r="U24" s="101" t="s">
+      <c r="U24" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="101"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="68"/>
       <c r="Y24" s="24" t="s">
         <v>120</v>
@@ -6321,11 +4965,11 @@
         <v>980973332.47318625</v>
       </c>
       <c r="W28" s="68"/>
-      <c r="Y28" s="102" t="s">
+      <c r="Y28" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
       <c r="AE28" s="25"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
@@ -6684,7 +5328,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="110" t="s">
+      <c r="J40" s="101" t="s">
         <v>163</v>
       </c>
       <c r="K40" s="24"/>
@@ -7635,12 +6279,1371 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA09BBF-9146-45D0-B2CE-B689733DBCF0}">
+  <dimension ref="B1:T40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="87" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100">
+        <v>5</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="103"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="99">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="99">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="99">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="99">
+        <v>2020</v>
+      </c>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="99">
+        <v>2021</v>
+      </c>
+      <c r="L3" s="99">
+        <v>2022</v>
+      </c>
+      <c r="M3" s="99">
+        <v>2023</v>
+      </c>
+      <c r="N3" s="99">
+        <v>2024</v>
+      </c>
+      <c r="O3" s="99">
+        <v>2025</v>
+      </c>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>7887000000</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8202000000</v>
+      </c>
+      <c r="F4" s="13">
+        <v>8513000000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>9039000000</v>
+      </c>
+      <c r="H4" s="13">
+        <v>9352000000</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="13">
+        <f>H4*(1+K5)</f>
+        <v>9632560000</v>
+      </c>
+      <c r="L4" s="13">
+        <f>K4*(1+L5)</f>
+        <v>9921536800</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:O4" si="0">L4*(1+M5)</f>
+        <v>10219182904</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="0"/>
+        <v>10525758391.120001</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" si="0"/>
+        <v>10841531142.853601</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="e">
+        <f>(D4-C4)/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ref="E5:H5" si="1">(E4-D4)/D4</f>
+        <v>3.9939140357550397E-2</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>3.7917581077785908E-2</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>6.178785387055092E-2</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="1"/>
+        <v>3.4627724305786041E-2</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16">
+        <f>(H4/D4)^(1/I2)-1</f>
+        <v>3.4662077203760022E-2</v>
+      </c>
+      <c r="K5" s="16">
+        <f>$S$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="16">
+        <f>$S$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="M5" s="16">
+        <f>$S$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="N5" s="16">
+        <f>$S$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="O5" s="16">
+        <f>$S$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
+        <v>1277000000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1489000000</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1786000000</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2256000000</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1716000000</v>
+      </c>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="13">
+        <f>K4*K8</f>
+        <v>1926512000</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" ref="L7:O7" si="2">L4*L8</f>
+        <v>1984307360</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="2"/>
+        <v>2043836580.8000002</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="2"/>
+        <v>2105151678.2240002</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="2"/>
+        <v>2168306228.5707202</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
+        <f>D7/D4</f>
+        <v>0.16191200710029163</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ref="E8:H8" si="3">E7/E4</f>
+        <v>0.18154108753962447</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="3"/>
+        <v>0.20979678139316341</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="3"/>
+        <v>0.24958513109857286</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1834901625320787</v>
+      </c>
+      <c r="I8" s="92"/>
+      <c r="J8" s="16">
+        <f>AVERAGE(C8:H8)</f>
+        <v>0.19726503393274622</v>
+      </c>
+      <c r="K8" s="16">
+        <f>$S$8</f>
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" ref="L8:O8" si="4">$S$8</f>
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="88"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>420000000</v>
+      </c>
+      <c r="E10" s="13">
+        <v>568000000</v>
+      </c>
+      <c r="F10" s="13">
+        <v>695000000</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1044000000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1020000000</v>
+      </c>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="13">
+        <f>K4*K11</f>
+        <v>963256000</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" ref="L10:O10" si="5">L4*L11</f>
+        <v>992153680</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="5"/>
+        <v>1021918290.4000001</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="5"/>
+        <v>1052575839.1120001</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="5"/>
+        <v>1084153114.2853601</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:H11" si="6">D10/D4</f>
+        <v>5.3252187143400534E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <f>E10/E4</f>
+        <v>6.9251402097049497E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="6"/>
+        <v>8.1639844943028311E-2</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.11549950215731829</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10906757912745936</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="16">
+        <f>AVERAGE(C11:H11)</f>
+        <v>8.5742103093651198E-2</v>
+      </c>
+      <c r="K11" s="16">
+        <f>$S$11</f>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11:O11" si="7">$S$11</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="13">
+        <v>3.58088235294117</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7.3181818181818103</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5.9692307692307596</v>
+      </c>
+      <c r="G12" s="13">
+        <v>11.2037647058823</v>
+      </c>
+      <c r="H12" s="13">
+        <v>14.0047058823529</v>
+      </c>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="88"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <f>D17*D12</f>
+        <v>486999999.99999911</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:H13" si="8">E17*E12</f>
+        <v>965999999.99999893</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="8"/>
+        <v>775999999.99999869</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="8"/>
+        <v>1487999999.9999928</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="8"/>
+        <v>1859999999.9999945</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="13">
+        <f>K7*K15</f>
+        <v>1059581600.0000001</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" ref="L13:O13" si="9">L7*L15</f>
+        <v>1091369048</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="9"/>
+        <v>1124110119.4400003</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="9"/>
+        <v>1157833423.0232003</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="9"/>
+        <v>1192568425.7138963</v>
+      </c>
+      <c r="P13" s="14">
+        <f>O7*S21</f>
+        <v>43366124571.414406</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17">
+        <f t="shared" ref="D14:H14" si="10">D13/D10</f>
+        <v>1.1595238095238074</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="10"/>
+        <v>1.7007042253521107</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="10"/>
+        <v>1.1165467625899261</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="10"/>
+        <v>1.4252873563218322</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="10"/>
+        <v>1.8235294117647005</v>
+      </c>
+      <c r="I14" s="91"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16">
+        <f>D13/D7</f>
+        <v>0.38136256851996797</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:H15" si="11">E13/E7</f>
+        <v>0.64875755540631219</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="11"/>
+        <v>0.43449048152295561</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="11"/>
+        <v>0.65957446808510323</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="11"/>
+        <v>1.0839160839160806</v>
+      </c>
+      <c r="I15" s="92"/>
+      <c r="J15" s="16">
+        <f>AVERAGE(C15:H15)</f>
+        <v>0.64162023149008385</v>
+      </c>
+      <c r="K15" s="16">
+        <f>$S$15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L15" s="16">
+        <f>$S$15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M15" s="16">
+        <f>$S$15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N15" s="16">
+        <f>$S$15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O15" s="16">
+        <f>$S$15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="13">
+        <v>136000000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>132000000</v>
+      </c>
+      <c r="F17" s="13">
+        <v>130000000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>132812500</v>
+      </c>
+      <c r="H17" s="13">
+        <v>132812500</v>
+      </c>
+      <c r="I17" s="100"/>
+      <c r="J17" s="7">
+        <f>H17</f>
+        <v>132812500</v>
+      </c>
+      <c r="K17" s="7">
+        <f>J17</f>
+        <v>132812500</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:O17" si="12">K17</f>
+        <v>132812500</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="12"/>
+        <v>132812500</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="12"/>
+        <v>132812500</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="12"/>
+        <v>132812500</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="13">
+        <v>870000000</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1030000000</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1033000000</v>
+      </c>
+      <c r="G19" s="13">
+        <v>887000000</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2089000000</v>
+      </c>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="13">
+        <v>3865000000</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4535000000</v>
+      </c>
+      <c r="F20" s="13">
+        <v>4604000000</v>
+      </c>
+      <c r="G20" s="13">
+        <v>5803000000</v>
+      </c>
+      <c r="H20" s="13">
+        <v>6724000000</v>
+      </c>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="11">
+        <v>20</v>
+      </c>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="18">
+        <f>D10/D17</f>
+        <v>3.0882352941176472</v>
+      </c>
+      <c r="E22" s="18">
+        <f>E10/E17</f>
+        <v>4.3030303030303028</v>
+      </c>
+      <c r="F22" s="18">
+        <f>F10/F17</f>
+        <v>5.3461538461538458</v>
+      </c>
+      <c r="G22" s="18">
+        <f>G10/G17</f>
+        <v>7.8607058823529412</v>
+      </c>
+      <c r="H22" s="18">
+        <f>H10/H17</f>
+        <v>7.68</v>
+      </c>
+      <c r="I22" s="100"/>
+      <c r="J22" s="8">
+        <f>(H22/D22)^(1/I2)-1</f>
+        <v>0.19985887333491759</v>
+      </c>
+      <c r="K22" s="18">
+        <f>K10/K17</f>
+        <v>7.2527510588235291</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" ref="L22:O22" si="13">L10/L17</f>
+        <v>7.4703335905882353</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="13"/>
+        <v>7.6944435983058828</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="13"/>
+        <v>7.9252769062550597</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="13"/>
+        <v>8.1630352134427113</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="13">
+        <f>D17*D25</f>
+        <v>21806239456</v>
+      </c>
+      <c r="E23" s="13">
+        <f>E17*E25</f>
+        <v>21257279076</v>
+      </c>
+      <c r="F23" s="13">
+        <f>F17*F25</f>
+        <v>27917500000</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G17*G25</f>
+        <v>26952969015.625</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H17*H25</f>
+        <v>30894843750</v>
+      </c>
+      <c r="I23" s="100"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="13">
+        <f>D23</f>
+        <v>21806239456</v>
+      </c>
+      <c r="E24" s="13">
+        <f>E23</f>
+        <v>21257279076</v>
+      </c>
+      <c r="F24" s="13">
+        <f>F23</f>
+        <v>27917500000</v>
+      </c>
+      <c r="G24" s="13">
+        <f>G23</f>
+        <v>26952969015.625</v>
+      </c>
+      <c r="H24" s="13">
+        <f>H23</f>
+        <v>30894843750</v>
+      </c>
+      <c r="I24" s="100"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="13">
+        <v>160.33999600000001</v>
+      </c>
+      <c r="E25" s="13">
+        <v>161.03999300000001</v>
+      </c>
+      <c r="F25" s="13">
+        <v>214.75</v>
+      </c>
+      <c r="G25" s="13">
+        <v>202.94000199999999</v>
+      </c>
+      <c r="H25" s="13">
+        <v>232.62</v>
+      </c>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="e">
+        <f>(D25-C25)/C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="8">
+        <f>(E25-D25)/D25</f>
+        <v>4.3657042376376021E-3</v>
+      </c>
+      <c r="F26" s="8">
+        <f>(F25-E25)/E25</f>
+        <v>0.33351968041876395</v>
+      </c>
+      <c r="G26" s="8">
+        <f>(G25-F25)/F25</f>
+        <v>-5.4994169965075702E-2</v>
+      </c>
+      <c r="H26" s="8">
+        <f>(H25-G25)/G25</f>
+        <v>0.14625011189267659</v>
+      </c>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <f>D24/D7</f>
+        <v>17.076146794048551</v>
+      </c>
+      <c r="E27" s="9">
+        <f>E24/E7</f>
+        <v>14.27621160241773</v>
+      </c>
+      <c r="F27" s="9">
+        <f>F24/F7</f>
+        <v>15.631298992161254</v>
+      </c>
+      <c r="G27" s="9">
+        <f>G24/G7</f>
+        <v>11.947238038840869</v>
+      </c>
+      <c r="H27" s="9">
+        <f>H24/H7</f>
+        <v>18.0039881993007</v>
+      </c>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S27" s="14">
+        <f>S21*O7</f>
+        <v>43366124571.414406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <f>D23/D10</f>
+        <v>51.919617752380951</v>
+      </c>
+      <c r="E28" s="9">
+        <f>E23/E10</f>
+        <v>37.424787105633804</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F23/F10</f>
+        <v>40.169064748201436</v>
+      </c>
+      <c r="G28" s="9">
+        <f>G23/G10</f>
+        <v>25.817020129909004</v>
+      </c>
+      <c r="H28" s="9">
+        <f>H23/H10</f>
+        <v>30.2890625</v>
+      </c>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="6">
+        <f>H19</f>
+        <v>2089000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <f>D13/D23</f>
+        <v>2.2333057516985156E-2</v>
+      </c>
+      <c r="E29" s="10">
+        <f>E13/E23</f>
+        <v>4.544325718010811E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <f>F13/F23</f>
+        <v>2.7796185188501788E-2</v>
+      </c>
+      <c r="G29" s="10">
+        <f>G13/G23</f>
+        <v>5.5207276019846985E-2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>H13/H23</f>
+        <v>6.0204220971339095E-2</v>
+      </c>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="6">
+        <f>H20*(-1)</f>
+        <v>-6724000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="14">
+        <f>S27+S28+S29</f>
+        <v>38731124571.414406</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S31" s="83">
+        <f>S30/O17</f>
+        <v>291.62258500829671</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="84">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="14">
+        <f>NPV(S33,K13:P13)</f>
+        <v>22489012423.19614</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S36" s="14">
+        <f>S35/O17</f>
+        <v>169.32903471582975</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="94"/>
+      <c r="R38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S38" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S40" s="14">
+        <f>S36*(1-S38)</f>
+        <v>126.99677603687232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1760B4A2-2204-49E6-88D1-0755446F3C0B}">
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:H20"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7664,33 +7667,33 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="3">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100">
+        <v>5</v>
+      </c>
+      <c r="J2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="88"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -7712,8 +7715,8 @@
       <c r="H3" s="85">
         <v>2021</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="85">
         <v>2021</v>
       </c>
@@ -7815,8 +7818,8 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16">
-        <f>(G4/D4)^(1/I2)-1</f>
-        <v>1.6610548099785127E-2</v>
+        <f>(H4/D4)^(1/I2)-1</f>
+        <v>5.7746190160910427E-2</v>
       </c>
       <c r="K5" s="16">
         <f>$S$4</f>
@@ -7851,8 +7854,8 @@
       <c r="F6" s="85"/>
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
@@ -7937,8 +7940,8 @@
       </c>
       <c r="I8" s="92"/>
       <c r="J8" s="16">
-        <f>AVERAGE(C8:G8)</f>
-        <v>0.26765675215191564</v>
+        <f>AVERAGE(C8:H8)</f>
+        <v>0.28080433810173955</v>
       </c>
       <c r="K8" s="16">
         <f>$S$8</f>
@@ -7978,8 +7981,8 @@
       <c r="F9" s="85"/>
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
       <c r="M9" s="85"/>
@@ -8062,8 +8065,8 @@
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="16">
-        <f>AVERAGE(C11:G11)</f>
-        <v>3.182079647020393E-2</v>
+        <f>AVERAGE(C11:H11)</f>
+        <v>6.1997354984290889E-2</v>
       </c>
       <c r="K11" s="16">
         <f>$S$11</f>
@@ -8116,8 +8119,8 @@
       <c r="H12" s="23">
         <v>9.7768472560815098</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="85"/>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
@@ -8244,9 +8247,9 @@
         <v>0.84718721974707589</v>
       </c>
       <c r="I15" s="92"/>
-      <c r="J15" s="17">
-        <f>AVERAGE(C15:G15)</f>
-        <v>0.67251267981569685</v>
+      <c r="J15" s="16">
+        <f>AVERAGE(C15:H15)</f>
+        <v>0.7074475878019727</v>
       </c>
       <c r="K15" s="17">
         <f>$S$15</f>
@@ -8283,7 +8286,7 @@
       <c r="F16" s="85"/>
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -8321,7 +8324,7 @@
       <c r="H17" s="7">
         <v>116000000</v>
       </c>
-      <c r="I17" s="85"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="7">
         <f>H17</f>
         <v>116000000</v>
@@ -8362,8 +8365,8 @@
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="85"/>
       <c r="L18" s="85"/>
       <c r="M18" s="85"/>
@@ -8400,8 +8403,8 @@
       <c r="H19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="85"/>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
@@ -8433,8 +8436,8 @@
       <c r="H20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="85"/>
       <c r="L20" s="85"/>
       <c r="M20" s="85"/>
@@ -8457,7 +8460,7 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="93"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
@@ -8499,10 +8502,10 @@
         <f>H10/H17</f>
         <v>6.3242327586206892</v>
       </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="8" t="e">
-        <f>(G22/D22)^(1/I2)-1</f>
-        <v>#NUM!</v>
+      <c r="I22" s="100"/>
+      <c r="J22" s="8">
+        <f>(H22/D22)^(1/I2)-1</f>
+        <v>-3.1735054706104635</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -8541,8 +8544,8 @@
         <f>H17*H25</f>
         <v>20764000000</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="85"/>
       <c r="L23" s="85"/>
       <c r="M23" s="85"/>
@@ -8579,8 +8582,8 @@
         <f>H23</f>
         <v>20764000000</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="85"/>
       <c r="L24" s="85"/>
       <c r="M24" s="85"/>
@@ -8612,8 +8615,8 @@
       <c r="H25" s="85">
         <v>179</v>
       </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
       <c r="M25" s="85"/>
@@ -8650,8 +8653,8 @@
         <f>(H25-G25)/G25</f>
         <v>1.5571428571428572</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="85"/>
       <c r="L26" s="85"/>
       <c r="M26" s="85"/>
@@ -8690,8 +8693,8 @@
         <f>H24/H7</f>
         <v>15.510778511999115</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
       <c r="K27" s="85"/>
       <c r="L27" s="85"/>
       <c r="M27" s="85"/>
@@ -8734,8 +8737,8 @@
         <f>H23/H10</f>
         <v>28.303828595808952</v>
       </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="85"/>
       <c r="L28" s="85"/>
       <c r="M28" s="85"/>
@@ -8777,8 +8780,8 @@
         <f>H13/H23</f>
         <v>5.4619258413863177E-2</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="85"/>
       <c r="L29" s="85"/>
       <c r="M29" s="85"/>
@@ -8986,7 +8989,7 @@
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="A1:XFD1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9012,33 +9015,33 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="86">
-        <v>4</v>
-      </c>
-      <c r="J2" s="86" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100">
+        <v>5</v>
+      </c>
+      <c r="J2" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="88"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -9060,8 +9063,8 @@
       <c r="H3" s="86">
         <v>2021</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="86">
         <v>2021</v>
       </c>
@@ -9157,8 +9160,8 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16">
-        <f>(G4/D4)^(1/I2)-1</f>
-        <v>3.8969937551049716E-2</v>
+        <f>(H4/D4)^(1/I2)-1</f>
+        <v>6.9088116627247453E-2</v>
       </c>
       <c r="K5" s="16">
         <f>$S$5</f>
@@ -9198,8 +9201,8 @@
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
       <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
       <c r="M6" s="86"/>
@@ -9284,8 +9287,8 @@
       </c>
       <c r="I8" s="92"/>
       <c r="J8" s="16">
-        <f>AVERAGE(C8:G8)</f>
-        <v>0.16479889945973214</v>
+        <f>AVERAGE(C8:H8)</f>
+        <v>0.16339464148134258</v>
       </c>
       <c r="K8" s="16">
         <f>$S$8</f>
@@ -9325,8 +9328,8 @@
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
       <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -9409,8 +9412,8 @@
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="16">
-        <f>AVERAGE(C11:G11)</f>
-        <v>9.3603437750146609E-2</v>
+        <f>AVERAGE(C11:H11)</f>
+        <v>9.4360458170747813E-2</v>
       </c>
       <c r="K11" s="16">
         <f>$S$11</f>
@@ -9463,8 +9466,8 @@
       <c r="H12" s="9">
         <v>15.2476722532588</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
@@ -9592,8 +9595,8 @@
       </c>
       <c r="I15" s="92"/>
       <c r="J15" s="16">
-        <f>AVERAGE(C15:G15)</f>
-        <v>0.58643852328990753</v>
+        <f>AVERAGE(C15:H15)</f>
+        <v>0.62686517949368947</v>
       </c>
       <c r="K15" s="16">
         <f>$S$15</f>
@@ -9632,7 +9635,7 @@
       <c r="F16" s="86"/>
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -9670,7 +9673,7 @@
       <c r="H17" s="13">
         <v>1078000000</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="7">
         <f>H17</f>
         <v>1078000000</v>
@@ -9711,8 +9714,8 @@
       <c r="F18" s="86"/>
       <c r="G18" s="86"/>
       <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
       <c r="M18" s="86"/>
@@ -9749,8 +9752,8 @@
       <c r="H19" s="13">
         <v>7895000000</v>
       </c>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="86"/>
       <c r="L19" s="86"/>
       <c r="M19" s="86"/>
@@ -9782,8 +9785,8 @@
       <c r="H20" s="13">
         <v>38066000000</v>
       </c>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="86"/>
       <c r="L20" s="86"/>
       <c r="M20" s="86"/>
@@ -9806,7 +9809,7 @@
       <c r="F21" s="86"/>
       <c r="G21" s="86"/>
       <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="93"/>
       <c r="K21" s="86"/>
       <c r="L21" s="86"/>
@@ -9848,10 +9851,10 @@
         <f>H10/H17</f>
         <v>11.935064935064934</v>
       </c>
-      <c r="I22" s="86"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="8">
-        <f>(G22/D22)^(1/I2)-1</f>
-        <v>0.12279556560902671</v>
+        <f>(H22/D22)^(1/I2)-1</f>
+        <v>0.13104039911858534</v>
       </c>
       <c r="K22" s="18">
         <f>K10/K17</f>
@@ -9905,7 +9908,7 @@
         <f>H17*H25</f>
         <v>334180000000</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="19"/>
       <c r="K23" s="86"/>
       <c r="L23" s="86"/>
@@ -9943,7 +9946,7 @@
         <f>H23</f>
         <v>334180000000</v>
       </c>
-      <c r="I24" s="86"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="19"/>
       <c r="K24" s="86"/>
       <c r="L24" s="86"/>
@@ -9976,8 +9979,8 @@
       <c r="H25" s="86">
         <v>310</v>
       </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
       <c r="K25" s="86"/>
       <c r="L25" s="86"/>
       <c r="M25" s="86"/>
@@ -10014,8 +10017,8 @@
         <f>(H25-G25)/G25</f>
         <v>0.75141242937853103</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="86"/>
       <c r="L26" s="86"/>
       <c r="M26" s="86"/>
@@ -10054,8 +10057,8 @@
         <f>H24/H7</f>
         <v>16.032431395125695</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
       <c r="K27" s="86"/>
       <c r="L27" s="86"/>
       <c r="M27" s="86"/>
@@ -10098,8 +10101,8 @@
         <f>H23/H10</f>
         <v>25.973884657236127</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="86"/>
       <c r="L28" s="86"/>
       <c r="M28" s="86"/>
@@ -10142,8 +10145,8 @@
         <f>H13/H23</f>
         <v>4.9186039526641294E-2</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="86"/>
       <c r="L29" s="86"/>
       <c r="M29" s="86"/>
@@ -10346,7 +10349,7 @@
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="A1:XFD1048576"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10372,33 +10375,33 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="95">
         <v>4</v>
       </c>
       <c r="J2" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="88"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -11705,8 +11708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527452A3-71E2-43A4-BE4F-FFA065373826}">
   <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F45" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11731,33 +11734,33 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="88"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -11876,8 +11879,8 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16">
-        <f>(G4/D4)^(1/I2)-1</f>
-        <v>0.2553127343802688</v>
+        <f>(H4/D4)^(1/I2)-1</f>
+        <v>0.25975954882239338</v>
       </c>
       <c r="K5" s="16">
         <f>$S$5</f>
@@ -12003,8 +12006,8 @@
       </c>
       <c r="I8" s="92"/>
       <c r="J8" s="16">
-        <f>AVERAGE(C8:G8)</f>
-        <v>0.44000074037297515</v>
+        <f>AVERAGE(C8:H8)</f>
+        <v>0.45072897691121161</v>
       </c>
       <c r="K8" s="16">
         <f>$S$8</f>
@@ -12128,8 +12131,8 @@
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="16">
-        <f>AVERAGE(C11:G11)</f>
-        <v>0.26757480112711868</v>
+        <f>AVERAGE(C11:H11)</f>
+        <v>0.28037759124189876</v>
       </c>
       <c r="K11" s="16">
         <f>$S$11</f>
@@ -12311,8 +12314,8 @@
       </c>
       <c r="I15" s="92"/>
       <c r="J15" s="16">
-        <f>AVERAGE(C15:G15)</f>
-        <v>0.5821069934857992</v>
+        <f>AVERAGE(C15:H15)</f>
+        <v>0.5728601189873721</v>
       </c>
       <c r="K15" s="16">
         <f>$S$15</f>
@@ -12569,8 +12572,8 @@
       </c>
       <c r="I22" s="98"/>
       <c r="J22" s="8">
-        <f>(G22/D22)^(1/I2)-1</f>
-        <v>0.22454468746984313</v>
+        <f>(H22/D22)^(1/I2)-1</f>
+        <v>0.30898110700127135</v>
       </c>
       <c r="K22" s="18">
         <f>K10/K17</f>
